--- a/api/data/job_dataset.xlsx
+++ b/api/data/job_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/441e488b571d86b8/Desktop/EAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saroj\Desktop\AIJobInsight\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A11B5F-2EC3-47E8-9054-E5F607014A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCD230-3E59-41BE-8E23-15B58A73822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="27645" windowHeight="13545" xr2:uid="{DAD460F3-FF15-4FE1-A303-003FF38D21C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAD460F3-FF15-4FE1-A303-003FF38D21C2}"/>
   </bookViews>
   <sheets>
     <sheet name="job_dataset" sheetId="1" r:id="rId1"/>
@@ -12474,10 +12474,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12797,8 +12793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869CE60E-F6E0-4CB1-B816-A2C4C8566449}">
   <dimension ref="A1:G1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E648" sqref="E648"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
